--- a/kjpt-platform/src/main/webapp/data/专家库模板.xlsx
+++ b/kjpt-platform/src/main/webapp/data/专家库模板.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>专家姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +49,18 @@
   </si>
   <si>
     <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -154,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,10 +193,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,16 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I6" sqref="I6:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,6 +438,9 @@
       </c>
       <c r="I1" t="s">
         <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/kjpt-platform/src/main/webapp/data/专家库模板.xlsx
+++ b/kjpt-platform/src/main/webapp/data/专家库模板.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouhu/Desktop/project/kjpt/kjpt-platform/src/main/webapp/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>专家姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,28 +62,24 @@
   </si>
   <si>
     <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,12 +170,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,14 +202,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -227,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,16 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,9 +450,7 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kjpt-platform/src/main/webapp/data/专家库模板.xlsx
+++ b/kjpt-platform/src/main/webapp/data/专家库模板.xlsx
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +58,13 @@
   </si>
   <si>
     <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <rPh sb="2" eb="3">
+      <t>dian hua</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +420,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -427,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -442,13 +445,13 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
       <c r="J1" s="1"/>
     </row>
